--- a/biology/Médecine/Gray_(unité)/Gray_(unité).xlsx
+++ b/biology/Médecine/Gray_(unité)/Gray_(unité).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gray_(unit%C3%A9)</t>
+          <t>Gray_(unité)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le gray (symbole Gy) est l'unité dérivée de dose absorbée du Système international (SI) d'unités. 
@@ -514,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gray_(unit%C3%A9)</t>
+          <t>Gray_(unité)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -533,6 +545,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gray_(unit%C3%A9)</t>
+          <t>Gray_(unité)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,10 +572,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gray a été nommé en l'honneur de Louis Harold Gray (1905-1965). 
-L'adoption de cette unité a été proposée en 1974 par la Commission internationale des unités et mesures radiologiques;  cette proposition a été entérinée en 1975 par la Conférence générale des poids et mesures[2],[3].
+L'adoption de cette unité a été proposée en 1974 par la Commission internationale des unités et mesures radiologiques;  cette proposition a été entérinée en 1975 par la Conférence générale des poids et mesures,.
 Le gray est 100 fois plus grand que l'ancienne unité qu'il a remplacée, le rad : 1 Gy = 100 rad.
 </t>
         </is>
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gray_(unit%C3%A9)</t>
+          <t>Gray_(unité)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,14 +607,16 @@
           <t>Sous-multiples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un gray délivré à l'ensemble du corps (dose corps-entier) correspond à une dose absorbée très élevée : une telle irradiation, délivrée en une seule fois, est le seuil d'apparition du syndrome d'irradiation aiguë, aussi appelé mal des rayons. On l'utilise donc pour exprimer des doses élevées, par exemple en radiothérapie.
 Pour d'autres applications, cette unité est trop élevée, et on préfère utiliser ses sous-multiples :
 le nanogray (nGy), plus adapté aux très faibles doses, dans les calculs d'exposition environnementale (généralement exprimée en nGy/h) ;
 le milligray (mGy), plus adapté aux faibles doses, en radiologie, radioprotection, etc. ;
 le centigray (cGy), utilisé aux États-Unis car simplifiant la transition à partir du rad, puisqu'on a directement 1 rad = 1 cGy.
-Il existe des calculateurs d'exposition et tables de conversion entre unités, intégrant notamment le gray[4].
+Il existe des calculateurs d'exposition et tables de conversion entre unités, intégrant notamment le gray.
 </t>
         </is>
       </c>
